--- a/biology/Botanique/Linaria_(plante)/Linaria_(plante).xlsx
+++ b/biology/Botanique/Linaria_(plante)/Linaria_(plante).xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Linaria est un genre de plantes herbacées, annuelles ou vivaces, de la famille des Scrophulariaceae selon la classification classique de Cronquist (1981)[1] ou des Plantaginaceae selon la classification phylogénétique. Elles doivent leur nom à leurs feuilles étroites évoquant celles du lin cultivé. On en compte environ 150 espèces, dont une bonne partie en région méditerranéenne[2]. C'est le genre de certaines « linaires ».
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Linaria est un genre de plantes herbacées, annuelles ou vivaces, de la famille des Scrophulariaceae selon la classification classique de Cronquist (1981) ou des Plantaginaceae selon la classification phylogénétique. Elles doivent leur nom à leurs feuilles étroites évoquant celles du lin cultivé. On en compte environ 150 espèces, dont une bonne partie en région méditerranéenne. C'est le genre de certaines « linaires ».
 </t>
         </is>
       </c>
@@ -511,7 +523,9 @@
           <t>Description du genre</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Plantes herbacées à feuilles simples et étroites (souvent linéaires), sessiles, les inférieures opposées ou verticillées, les supérieures généralement alternes. Fleurs zygomorphes groupées en racèmes simples ou capituliformes, ou en racèmes de racèmes. Calice à cinq lobes inégaux, souvent courts. Corolle bilabiée à tube renflé, à limbe en gueule, prolongée à la base par un éperon. La lèvre supérieure est formée de deux lobes légèrement réfléchis, la lèvre inférieure de trois lobes. Cette lèvre présente un palais saillant fermant la gorge, bilobé, maculé de couleurs vives, généralement velu. Quatre étamines. Le fruit est une capsule polysperme à deux loges.
 </t>
@@ -542,9 +556,11 @@
           <t>Principales espèces</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Selon le National Genetic Resources Program de l'USDA[2] :
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Selon le National Genetic Resources Program de l'USDA :
 Linaria aeruginea (Gouan) Cav.
 Linaria alpina (L.) Mill. - Linaire des Alpes
 Linaria angustissima (Loisel.) Borbás
